--- a/Files/arkusz.xlsx
+++ b/Files/arkusz.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal.pezda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD03B7C7-77BB-4AFC-AEF8-507C0723D064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6984E4E-4189-4EF8-BA00-B20A155C12E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37470" windowHeight="12810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37470" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raport BOM" sheetId="1" r:id="rId1"/>
@@ -1180,9 +1180,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1760,14 +1760,14 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2126,11 +2126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H235" sqref="H235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
